--- a/education/EducationPlan_first(1)0508（盖章）.xlsx
+++ b/education/EducationPlan_first(1)0508（盖章）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,12 +88,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t>1.微信公众号托管（含自动回复，关注推送，智能分词回复</t>
     </r>
     <r>
@@ -127,7 +121,24 @@
 6.微信在线客服功能（多客服，客服号可绑定微信帐号使用微信回复）；
 7.未购买的用户不能观看视频功能（使用地址加密）；
 8.访问统计；
-9.入口：扫描微信二维码登入；
+9.</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="9"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>入口：扫描微信二维码登入；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 10.在线购买视频并在线观看视频功能，兼容安卓和IOS；
 11.在线留言及回复功能；
 12.支持MP4格式的HTTP空间调用第三方视频服务商视频空间；
@@ -219,10 +230,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -286,6 +297,52 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -293,8 +350,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,8 +365,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,15 +425,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,92 +441,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -480,187 +491,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,6 +821,45 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,35 +890,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,24 +914,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -919,10 +930,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -931,133 +942,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1490,8 +1501,8 @@
   </sheetPr>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -1580,7 +1591,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" ht="114" spans="1:6">
+    <row r="8" ht="125" customHeight="1" spans="1:6">
       <c r="A8" s="14">
         <v>1</v>
       </c>
@@ -1594,7 +1605,7 @@
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
     </row>
-    <row r="9" ht="42.75" spans="1:6">
+    <row r="9" ht="60" customHeight="1" spans="1:6">
       <c r="A9" s="14">
         <v>2</v>
       </c>
@@ -1608,7 +1619,7 @@
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
     </row>
-    <row r="10" ht="42.75" spans="1:6">
+    <row r="10" ht="48" customHeight="1" spans="1:6">
       <c r="A10" s="14">
         <v>3</v>
       </c>
